--- a/2024FEB_M1_Daily_Class.xlsx
+++ b/2024FEB_M1_Daily_Class.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="55">
   <si>
     <t>S.N.</t>
   </si>
@@ -170,6 +170,15 @@
   </si>
   <si>
     <t>Java GUI Components, Login Form</t>
+  </si>
+  <si>
+    <t>Button click message and Layout Managers</t>
+  </si>
+  <si>
+    <t>National Holiday</t>
+  </si>
+  <si>
+    <t>Layout Managers</t>
   </si>
 </sst>
 </file>
@@ -1381,7 +1390,9 @@
       <c r="B72" s="8">
         <v>45404</v>
       </c>
-      <c r="C72" s="9"/>
+      <c r="C72" s="9" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="19.5">
       <c r="A73" s="7">
@@ -1390,7 +1401,9 @@
       <c r="B73" s="8">
         <v>45405</v>
       </c>
-      <c r="C73" s="9"/>
+      <c r="C73" s="9" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="19.5">
       <c r="A74" s="7">
@@ -1399,7 +1412,9 @@
       <c r="B74" s="8">
         <v>45406</v>
       </c>
-      <c r="C74" s="9"/>
+      <c r="C74" s="9" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="20.25">
       <c r="A75" s="7">

--- a/2024FEB_M1_Daily_Class.xlsx
+++ b/2024FEB_M1_Daily_Class.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SCAJAVAM1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E943C64-59C4-4C16-8F90-9268EBC9C114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -184,10 +190,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode=",,"/>
-    <numFmt numFmtId="165" formatCode="dddd, mmmm dd, yyyy"/>
+    <numFmt numFmtId="164" formatCode="\,"/>
+    <numFmt numFmtId="165" formatCode="dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -220,7 +226,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFff0000"/>
+        <fgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -252,52 +258,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -308,10 +317,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -349,71 +358,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -441,7 +450,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -464,11 +473,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -477,13 +486,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -493,7 +502,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -502,7 +511,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -511,7 +520,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -519,10 +528,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -587,22 +596,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C75"/>
+  <dimension ref="A1:C95"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="C78" sqref="C78"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="10" width="4.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="11" width="28.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="12" width="58.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="4.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58.7109375" style="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row r="1" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -613,7 +624,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -624,7 +635,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row r="3" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -635,7 +646,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+    <row r="4" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -646,7 +657,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+    <row r="5" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -657,7 +668,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+    <row r="6" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -668,7 +679,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+    <row r="7" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -679,7 +690,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+    <row r="8" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -690,7 +701,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+    <row r="9" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -701,7 +712,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+    <row r="10" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -712,7 +723,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+    <row r="11" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -723,7 +734,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+    <row r="12" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -734,7 +745,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+    <row r="13" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -745,7 +756,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+    <row r="14" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -756,7 +767,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+    <row r="15" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -767,7 +778,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+    <row r="16" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -778,7 +789,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+    <row r="17" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>16</v>
       </c>
@@ -789,7 +800,7 @@
         <v>14</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+    <row r="18" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>17</v>
       </c>
@@ -800,7 +811,7 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+    <row r="19" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>18</v>
       </c>
@@ -811,7 +822,7 @@
         <v>16</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
+    <row r="20" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>19</v>
       </c>
@@ -822,7 +833,7 @@
         <v>17</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
+    <row r="21" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>20</v>
       </c>
@@ -833,7 +844,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
+    <row r="22" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>21</v>
       </c>
@@ -844,7 +855,7 @@
         <v>18</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
+    <row r="23" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>22</v>
       </c>
@@ -855,7 +866,7 @@
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
+    <row r="24" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>23</v>
       </c>
@@ -866,7 +877,7 @@
         <v>20</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
+    <row r="25" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>24</v>
       </c>
@@ -877,7 +888,7 @@
         <v>21</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
+    <row r="26" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>25</v>
       </c>
@@ -888,7 +899,7 @@
         <v>17</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
+    <row r="27" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>26</v>
       </c>
@@ -899,7 +910,7 @@
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
+    <row r="28" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>27</v>
       </c>
@@ -910,7 +921,7 @@
         <v>23</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
+    <row r="29" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>28</v>
       </c>
@@ -921,7 +932,7 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
+    <row r="30" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>29</v>
       </c>
@@ -932,7 +943,7 @@
         <v>25</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
+    <row r="31" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>30</v>
       </c>
@@ -943,7 +954,7 @@
         <v>26</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
+    <row r="32" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>31</v>
       </c>
@@ -954,7 +965,7 @@
         <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
+    <row r="33" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>32</v>
       </c>
@@ -965,7 +976,7 @@
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
+    <row r="34" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
         <v>33</v>
       </c>
@@ -976,7 +987,7 @@
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
+    <row r="35" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>34</v>
       </c>
@@ -987,7 +998,7 @@
         <v>29</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5">
+    <row r="36" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>35</v>
       </c>
@@ -998,7 +1009,7 @@
         <v>30</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5">
+    <row r="37" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>36</v>
       </c>
@@ -1009,7 +1020,7 @@
         <v>31</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5">
+    <row r="38" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <v>37</v>
       </c>
@@ -1020,7 +1031,7 @@
         <v>32</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5">
+    <row r="39" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <v>38</v>
       </c>
@@ -1031,7 +1042,7 @@
         <v>33</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5">
+    <row r="40" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
         <v>39</v>
       </c>
@@ -1042,7 +1053,7 @@
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="19.5">
+    <row r="41" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
         <v>40</v>
       </c>
@@ -1053,7 +1064,7 @@
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="19.5">
+    <row r="42" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
         <v>41</v>
       </c>
@@ -1064,7 +1075,7 @@
         <v>29</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="19.5">
+    <row r="43" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
         <v>42</v>
       </c>
@@ -1075,7 +1086,7 @@
         <v>34</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="19.5">
+    <row r="44" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7">
         <v>43</v>
       </c>
@@ -1086,7 +1097,7 @@
         <v>35</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="19.5">
+    <row r="45" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7">
         <v>44</v>
       </c>
@@ -1097,7 +1108,7 @@
         <v>36</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="19.5">
+    <row r="46" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7">
         <v>45</v>
       </c>
@@ -1108,7 +1119,7 @@
         <v>37</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="19.5">
+    <row r="47" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7">
         <v>46</v>
       </c>
@@ -1119,7 +1130,7 @@
         <v>17</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="19.5">
+    <row r="48" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7">
         <v>47</v>
       </c>
@@ -1130,7 +1141,7 @@
         <v>17</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="19.5">
+    <row r="49" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
         <v>48</v>
       </c>
@@ -1141,7 +1152,7 @@
         <v>38</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="19.5">
+    <row r="50" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="7">
         <v>49</v>
       </c>
@@ -1152,7 +1163,7 @@
         <v>39</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="19.5">
+    <row r="51" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7">
         <v>50</v>
       </c>
@@ -1163,7 +1174,7 @@
         <v>40</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="19.5">
+    <row r="52" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="7">
         <v>51</v>
       </c>
@@ -1174,7 +1185,7 @@
         <v>41</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="19.5">
+    <row r="53" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7">
         <v>52</v>
       </c>
@@ -1185,7 +1196,7 @@
         <v>42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="19.5">
+    <row r="54" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="7">
         <v>53</v>
       </c>
@@ -1196,7 +1207,7 @@
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="19.5">
+    <row r="55" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7">
         <v>54</v>
       </c>
@@ -1207,7 +1218,7 @@
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="19.5">
+    <row r="56" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="7">
         <v>55</v>
       </c>
@@ -1218,7 +1229,7 @@
         <v>38</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="19.5">
+    <row r="57" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7">
         <v>56</v>
       </c>
@@ -1229,7 +1240,7 @@
         <v>43</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="19.5">
+    <row r="58" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="7">
         <v>57</v>
       </c>
@@ -1240,7 +1251,7 @@
         <v>44</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="19.5">
+    <row r="59" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7">
         <v>58</v>
       </c>
@@ -1251,7 +1262,7 @@
         <v>45</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="19.5">
+    <row r="60" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="7">
         <v>59</v>
       </c>
@@ -1262,7 +1273,7 @@
         <v>46</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="19.5">
+    <row r="61" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="7">
         <v>60</v>
       </c>
@@ -1273,7 +1284,7 @@
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="19.5">
+    <row r="62" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="7">
         <v>61</v>
       </c>
@@ -1284,7 +1295,7 @@
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="19.5">
+    <row r="63" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="7">
         <v>62</v>
       </c>
@@ -1295,7 +1306,7 @@
         <v>38</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="19.5">
+    <row r="64" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="7">
         <v>63</v>
       </c>
@@ -1306,7 +1317,7 @@
         <v>47</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="19.5">
+    <row r="65" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="7">
         <v>64</v>
       </c>
@@ -1317,7 +1328,7 @@
         <v>48</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="19.5">
+    <row r="66" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="7">
         <v>65</v>
       </c>
@@ -1328,7 +1339,7 @@
         <v>49</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="19.5">
+    <row r="67" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="7">
         <v>66</v>
       </c>
@@ -1339,7 +1350,7 @@
         <v>50</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="19.5">
+    <row r="68" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="7">
         <v>67</v>
       </c>
@@ -1350,7 +1361,7 @@
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="19.5">
+    <row r="69" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="7">
         <v>68</v>
       </c>
@@ -1361,7 +1372,7 @@
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="19.5">
+    <row r="70" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="7">
         <v>69</v>
       </c>
@@ -1372,7 +1383,7 @@
         <v>38</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="19.5">
+    <row r="71" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="7">
         <v>70</v>
       </c>
@@ -1383,7 +1394,7 @@
         <v>51</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="19.5">
+    <row r="72" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="7">
         <v>71</v>
       </c>
@@ -1394,7 +1405,7 @@
         <v>52</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="19.5">
+    <row r="73" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="7">
         <v>72</v>
       </c>
@@ -1405,7 +1416,7 @@
         <v>53</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="19.5">
+    <row r="74" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="7">
         <v>73</v>
       </c>
@@ -1416,7 +1427,7 @@
         <v>54</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="20.25">
+    <row r="75" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="7">
         <v>74</v>
       </c>
@@ -1424,6 +1435,126 @@
         <v>45407</v>
       </c>
       <c r="C75" s="9"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B76" s="8">
+        <v>45408</v>
+      </c>
+      <c r="C76" s="9"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B77" s="8">
+        <v>45409</v>
+      </c>
+      <c r="C77" s="9"/>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B78" s="8">
+        <v>45410</v>
+      </c>
+      <c r="C78" s="9"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B79" s="8">
+        <v>45411</v>
+      </c>
+      <c r="C79" s="9"/>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B80" s="8">
+        <v>45412</v>
+      </c>
+      <c r="C80" s="9"/>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B81" s="8">
+        <v>45413</v>
+      </c>
+      <c r="C81" s="9"/>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B82" s="8">
+        <v>45414</v>
+      </c>
+      <c r="C82" s="9"/>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B83" s="8">
+        <v>45415</v>
+      </c>
+      <c r="C83" s="9"/>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B84" s="8">
+        <v>45416</v>
+      </c>
+      <c r="C84" s="9"/>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B85" s="8">
+        <v>45417</v>
+      </c>
+      <c r="C85" s="9"/>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B86" s="8">
+        <v>45418</v>
+      </c>
+      <c r="C86" s="9"/>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B87" s="8">
+        <v>45419</v>
+      </c>
+      <c r="C87" s="9"/>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B88" s="8">
+        <v>45420</v>
+      </c>
+      <c r="C88" s="9"/>
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B89" s="8">
+        <v>45421</v>
+      </c>
+      <c r="C89" s="9"/>
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B90" s="8">
+        <v>45422</v>
+      </c>
+      <c r="C90" s="9"/>
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B91" s="8">
+        <v>45423</v>
+      </c>
+      <c r="C91" s="9"/>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B92" s="8">
+        <v>45424</v>
+      </c>
+      <c r="C92" s="9"/>
+    </row>
+    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B93" s="8">
+        <v>45425</v>
+      </c>
+      <c r="C93" s="9"/>
+    </row>
+    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B94" s="8">
+        <v>45426</v>
+      </c>
+      <c r="C94" s="9"/>
+    </row>
+    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B95" s="8">
+        <v>45427</v>
+      </c>
+      <c r="C95" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2024FEB_M1_Daily_Class.xlsx
+++ b/2024FEB_M1_Daily_Class.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SCAJAVAM1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E943C64-59C4-4C16-8F90-9268EBC9C114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="56">
   <si>
     <t>S.N.</t>
   </si>
@@ -185,15 +179,18 @@
   </si>
   <si>
     <t>Layout Managers</t>
+  </si>
+  <si>
+    <t>GUI Components</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="\,"/>
-    <numFmt numFmtId="165" formatCode="dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="164" formatCode=",,"/>
+    <numFmt numFmtId="165" formatCode="dddd, mmmm dd, yyyy"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -226,7 +223,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor rgb="FFff0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -257,56 +254,56 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="14">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -317,10 +314,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -358,71 +355,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -450,7 +447,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -473,11 +470,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -486,13 +483,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -502,7 +499,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -511,7 +508,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -520,7 +517,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -528,10 +525,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -596,24 +593,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:C95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="C78" sqref="C78"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="58.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="11" width="4.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="12" width="28.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="13" width="58.71928571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -624,7 +619,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -635,7 +630,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -646,7 +641,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -657,7 +652,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -668,7 +663,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -679,7 +674,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -690,7 +685,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -701,7 +696,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -712,7 +707,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -723,7 +718,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -734,7 +729,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -745,7 +740,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -756,7 +751,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -767,7 +762,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -778,7 +773,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -789,7 +784,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="7">
         <v>16</v>
       </c>
@@ -800,7 +795,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="7">
         <v>17</v>
       </c>
@@ -811,7 +806,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="7">
         <v>18</v>
       </c>
@@ -822,7 +817,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="7">
         <v>19</v>
       </c>
@@ -833,7 +828,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="7">
         <v>20</v>
       </c>
@@ -844,7 +839,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="7">
         <v>21</v>
       </c>
@@ -855,7 +850,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="7">
         <v>22</v>
       </c>
@@ -866,7 +861,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="7">
         <v>23</v>
       </c>
@@ -877,7 +872,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
       <c r="A25" s="7">
         <v>24</v>
       </c>
@@ -888,7 +883,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
       <c r="A26" s="7">
         <v>25</v>
       </c>
@@ -899,7 +894,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
       <c r="A27" s="7">
         <v>26</v>
       </c>
@@ -910,7 +905,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
       <c r="A28" s="7">
         <v>27</v>
       </c>
@@ -921,7 +916,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
       <c r="A29" s="7">
         <v>28</v>
       </c>
@@ -932,7 +927,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
       <c r="A30" s="7">
         <v>29</v>
       </c>
@@ -943,7 +938,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
       <c r="A31" s="7">
         <v>30</v>
       </c>
@@ -954,7 +949,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
       <c r="A32" s="7">
         <v>31</v>
       </c>
@@ -965,7 +960,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
       <c r="A33" s="7">
         <v>32</v>
       </c>
@@ -976,7 +971,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
       <c r="A34" s="7">
         <v>33</v>
       </c>
@@ -987,7 +982,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
       <c r="A35" s="7">
         <v>34</v>
       </c>
@@ -998,7 +993,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5">
       <c r="A36" s="7">
         <v>35</v>
       </c>
@@ -1009,7 +1004,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5">
       <c r="A37" s="7">
         <v>36</v>
       </c>
@@ -1020,7 +1015,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5">
       <c r="A38" s="7">
         <v>37</v>
       </c>
@@ -1031,7 +1026,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5">
       <c r="A39" s="7">
         <v>38</v>
       </c>
@@ -1042,7 +1037,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5">
       <c r="A40" s="7">
         <v>39</v>
       </c>
@@ -1053,7 +1048,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="19.5">
       <c r="A41" s="7">
         <v>40</v>
       </c>
@@ -1064,7 +1059,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="19.5">
       <c r="A42" s="7">
         <v>41</v>
       </c>
@@ -1075,7 +1070,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="19.5">
       <c r="A43" s="7">
         <v>42</v>
       </c>
@@ -1086,7 +1081,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="19.5">
       <c r="A44" s="7">
         <v>43</v>
       </c>
@@ -1097,7 +1092,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="19.5">
       <c r="A45" s="7">
         <v>44</v>
       </c>
@@ -1108,7 +1103,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="19.5">
       <c r="A46" s="7">
         <v>45</v>
       </c>
@@ -1119,7 +1114,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="19.5">
       <c r="A47" s="7">
         <v>46</v>
       </c>
@@ -1130,7 +1125,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="19.5">
       <c r="A48" s="7">
         <v>47</v>
       </c>
@@ -1141,7 +1136,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="19.5">
       <c r="A49" s="7">
         <v>48</v>
       </c>
@@ -1152,7 +1147,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="19.5">
       <c r="A50" s="7">
         <v>49</v>
       </c>
@@ -1163,7 +1158,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="19.5">
       <c r="A51" s="7">
         <v>50</v>
       </c>
@@ -1174,7 +1169,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="19.5">
       <c r="A52" s="7">
         <v>51</v>
       </c>
@@ -1185,7 +1180,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="19.5">
       <c r="A53" s="7">
         <v>52</v>
       </c>
@@ -1196,7 +1191,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="19.5">
       <c r="A54" s="7">
         <v>53</v>
       </c>
@@ -1207,7 +1202,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="19.5">
       <c r="A55" s="7">
         <v>54</v>
       </c>
@@ -1218,7 +1213,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="19.5">
       <c r="A56" s="7">
         <v>55</v>
       </c>
@@ -1229,7 +1224,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="19.5">
       <c r="A57" s="7">
         <v>56</v>
       </c>
@@ -1240,7 +1235,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="19.5">
       <c r="A58" s="7">
         <v>57</v>
       </c>
@@ -1251,7 +1246,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="19.5">
       <c r="A59" s="7">
         <v>58</v>
       </c>
@@ -1262,7 +1257,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="19.5">
       <c r="A60" s="7">
         <v>59</v>
       </c>
@@ -1273,7 +1268,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="19.5">
       <c r="A61" s="7">
         <v>60</v>
       </c>
@@ -1284,7 +1279,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="19.5">
       <c r="A62" s="7">
         <v>61</v>
       </c>
@@ -1295,7 +1290,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="19.5">
       <c r="A63" s="7">
         <v>62</v>
       </c>
@@ -1306,7 +1301,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="19.5">
       <c r="A64" s="7">
         <v>63</v>
       </c>
@@ -1317,7 +1312,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="19.5">
       <c r="A65" s="7">
         <v>64</v>
       </c>
@@ -1328,7 +1323,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="19.5">
       <c r="A66" s="7">
         <v>65</v>
       </c>
@@ -1339,7 +1334,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="19.5">
       <c r="A67" s="7">
         <v>66</v>
       </c>
@@ -1350,7 +1345,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="19.5">
       <c r="A68" s="7">
         <v>67</v>
       </c>
@@ -1361,7 +1356,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="19.5">
       <c r="A69" s="7">
         <v>68</v>
       </c>
@@ -1372,7 +1367,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="19.5">
       <c r="A70" s="7">
         <v>69</v>
       </c>
@@ -1383,7 +1378,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="19.5">
       <c r="A71" s="7">
         <v>70</v>
       </c>
@@ -1394,7 +1389,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="19.5">
       <c r="A72" s="7">
         <v>71</v>
       </c>
@@ -1405,7 +1400,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="19.5">
       <c r="A73" s="7">
         <v>72</v>
       </c>
@@ -1416,7 +1411,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="19.5">
       <c r="A74" s="7">
         <v>73</v>
       </c>
@@ -1427,130 +1422,158 @@
         <v>54</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="20.25">
       <c r="A75" s="7">
         <v>74</v>
       </c>
       <c r="B75" s="8">
         <v>45407</v>
       </c>
-      <c r="C75" s="9"/>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C75" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
+      <c r="A76" s="10"/>
       <c r="B76" s="8">
         <v>45408</v>
       </c>
-      <c r="C76" s="9"/>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C76" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
+      <c r="A77" s="10"/>
       <c r="B77" s="8">
         <v>45409</v>
       </c>
-      <c r="C77" s="9"/>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C77" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
+      <c r="A78" s="10"/>
       <c r="B78" s="8">
         <v>45410</v>
       </c>
-      <c r="C78" s="9"/>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C78" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
+      <c r="A79" s="10"/>
       <c r="B79" s="8">
         <v>45411</v>
       </c>
       <c r="C79" s="9"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
+      <c r="A80" s="10"/>
       <c r="B80" s="8">
         <v>45412</v>
       </c>
       <c r="C80" s="9"/>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
+      <c r="A81" s="10"/>
       <c r="B81" s="8">
         <v>45413</v>
       </c>
       <c r="C81" s="9"/>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
+      <c r="A82" s="10"/>
       <c r="B82" s="8">
         <v>45414</v>
       </c>
       <c r="C82" s="9"/>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
+      <c r="A83" s="10"/>
       <c r="B83" s="8">
         <v>45415</v>
       </c>
       <c r="C83" s="9"/>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
+      <c r="A84" s="10"/>
       <c r="B84" s="8">
         <v>45416</v>
       </c>
       <c r="C84" s="9"/>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
+      <c r="A85" s="10"/>
       <c r="B85" s="8">
         <v>45417</v>
       </c>
       <c r="C85" s="9"/>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
+      <c r="A86" s="10"/>
       <c r="B86" s="8">
         <v>45418</v>
       </c>
       <c r="C86" s="9"/>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
+      <c r="A87" s="10"/>
       <c r="B87" s="8">
         <v>45419</v>
       </c>
       <c r="C87" s="9"/>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
+      <c r="A88" s="10"/>
       <c r="B88" s="8">
         <v>45420</v>
       </c>
       <c r="C88" s="9"/>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
+      <c r="A89" s="10"/>
       <c r="B89" s="8">
         <v>45421</v>
       </c>
       <c r="C89" s="9"/>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
+      <c r="A90" s="10"/>
       <c r="B90" s="8">
         <v>45422</v>
       </c>
       <c r="C90" s="9"/>
     </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
+      <c r="A91" s="10"/>
       <c r="B91" s="8">
         <v>45423</v>
       </c>
       <c r="C91" s="9"/>
     </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
+      <c r="A92" s="10"/>
       <c r="B92" s="8">
         <v>45424</v>
       </c>
       <c r="C92" s="9"/>
     </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
+      <c r="A93" s="10"/>
       <c r="B93" s="8">
         <v>45425</v>
       </c>
       <c r="C93" s="9"/>
     </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
+      <c r="A94" s="10"/>
       <c r="B94" s="8">
         <v>45426</v>
       </c>
       <c r="C94" s="9"/>
     </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
+      <c r="A95" s="10"/>
       <c r="B95" s="8">
         <v>45427</v>
       </c>

--- a/2024FEB_M1_Daily_Class.xlsx
+++ b/2024FEB_M1_Daily_Class.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="57">
   <si>
     <t>S.N.</t>
   </si>
@@ -182,6 +182,9 @@
   </si>
   <si>
     <t>GUI Components</t>
+  </si>
+  <si>
+    <t>Menu, Menu items</t>
   </si>
 </sst>
 </file>
@@ -192,7 +195,7 @@
     <numFmt numFmtId="164" formatCode=",,"/>
     <numFmt numFmtId="165" formatCode="dddd, mmmm dd, yyyy"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,6 +216,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -227,7 +236,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -248,6 +257,13 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -283,8 +299,8 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -1433,7 +1449,7 @@
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="19.5">
       <c r="A76" s="10"/>
       <c r="B76" s="8">
         <v>45408</v>
@@ -1442,7 +1458,7 @@
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="19.5">
       <c r="A77" s="10"/>
       <c r="B77" s="8">
         <v>45409</v>
@@ -1451,7 +1467,7 @@
         <v>38</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="19.5">
       <c r="A78" s="10"/>
       <c r="B78" s="8">
         <v>45410</v>
@@ -1460,77 +1476,79 @@
         <v>55</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="19.5">
       <c r="A79" s="10"/>
       <c r="B79" s="8">
         <v>45411</v>
       </c>
-      <c r="C79" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
+      <c r="C79" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="19.5">
       <c r="A80" s="10"/>
       <c r="B80" s="8">
         <v>45412</v>
       </c>
       <c r="C80" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="19.5">
       <c r="A81" s="10"/>
       <c r="B81" s="8">
         <v>45413</v>
       </c>
       <c r="C81" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="19.5">
       <c r="A82" s="10"/>
       <c r="B82" s="8">
         <v>45414</v>
       </c>
       <c r="C82" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="19.5">
       <c r="A83" s="10"/>
       <c r="B83" s="8">
         <v>45415</v>
       </c>
       <c r="C83" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="19.5">
       <c r="A84" s="10"/>
       <c r="B84" s="8">
         <v>45416</v>
       </c>
       <c r="C84" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="19.5">
       <c r="A85" s="10"/>
       <c r="B85" s="8">
         <v>45417</v>
       </c>
       <c r="C85" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="19.5">
       <c r="A86" s="10"/>
       <c r="B86" s="8">
         <v>45418</v>
       </c>
       <c r="C86" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="19.5">
       <c r="A87" s="10"/>
       <c r="B87" s="8">
         <v>45419</v>
       </c>
       <c r="C87" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="19.5">
       <c r="A88" s="10"/>
       <c r="B88" s="8">
         <v>45420</v>
       </c>
       <c r="C88" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="19.5">
       <c r="A89" s="10"/>
       <c r="B89" s="8">
         <v>45421</v>

--- a/2024FEB_M1_Daily_Class.xlsx
+++ b/2024FEB_M1_Daily_Class.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="59">
   <si>
     <t>S.N.</t>
   </si>
@@ -185,6 +185,12 @@
   </si>
   <si>
     <t>Menu, Menu items</t>
+  </si>
+  <si>
+    <t>Option dialog and others.</t>
+  </si>
+  <si>
+    <t>Labours Day</t>
   </si>
 </sst>
 </file>
@@ -195,7 +201,7 @@
     <numFmt numFmtId="164" formatCode=",,"/>
     <numFmt numFmtId="165" formatCode="dddd, mmmm dd, yyyy"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,12 +219,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -299,11 +299,11 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1490,35 +1490,45 @@
       <c r="B80" s="8">
         <v>45412</v>
       </c>
-      <c r="C80" s="9"/>
+      <c r="C80" s="9" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="19.5">
       <c r="A81" s="10"/>
       <c r="B81" s="8">
         <v>45413</v>
       </c>
-      <c r="C81" s="9"/>
+      <c r="C81" s="9" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="19.5">
       <c r="A82" s="10"/>
       <c r="B82" s="8">
         <v>45414</v>
       </c>
-      <c r="C82" s="9"/>
+      <c r="C82" s="9" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="19.5">
       <c r="A83" s="10"/>
       <c r="B83" s="8">
         <v>45415</v>
       </c>
-      <c r="C83" s="9"/>
+      <c r="C83" s="9" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="19.5">
       <c r="A84" s="10"/>
       <c r="B84" s="8">
         <v>45416</v>
       </c>
-      <c r="C84" s="9"/>
+      <c r="C84" s="9" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="19.5">
       <c r="A85" s="10"/>
@@ -1555,42 +1565,42 @@
       </c>
       <c r="C89" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="19.5">
       <c r="A90" s="10"/>
       <c r="B90" s="8">
         <v>45422</v>
       </c>
       <c r="C90" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="19.5">
       <c r="A91" s="10"/>
       <c r="B91" s="8">
         <v>45423</v>
       </c>
       <c r="C91" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="19.5">
       <c r="A92" s="10"/>
       <c r="B92" s="8">
         <v>45424</v>
       </c>
       <c r="C92" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="19.5">
       <c r="A93" s="10"/>
       <c r="B93" s="8">
         <v>45425</v>
       </c>
       <c r="C93" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="19.5">
       <c r="A94" s="10"/>
       <c r="B94" s="8">
         <v>45426</v>
       </c>
       <c r="C94" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="20.25">
       <c r="A95" s="10"/>
       <c r="B95" s="8">
         <v>45427</v>

--- a/2024FEB_M1_Daily_Class.xlsx
+++ b/2024FEB_M1_Daily_Class.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="62">
   <si>
     <t>S.N.</t>
   </si>
@@ -191,6 +191,15 @@
   </si>
   <si>
     <t>Labours Day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Event Handling </t>
+  </si>
+  <si>
+    <t>Listener Interfaces</t>
+  </si>
+  <si>
+    <t>Handling events and adapter classes</t>
   </si>
 </sst>
 </file>
@@ -1535,21 +1544,27 @@
       <c r="B85" s="8">
         <v>45417</v>
       </c>
-      <c r="C85" s="9"/>
+      <c r="C85" s="9" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="19.5">
       <c r="A86" s="10"/>
       <c r="B86" s="8">
         <v>45418</v>
       </c>
-      <c r="C86" s="9"/>
+      <c r="C86" s="9" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="19.5">
       <c r="A87" s="10"/>
       <c r="B87" s="8">
         <v>45419</v>
       </c>
-      <c r="C87" s="9"/>
+      <c r="C87" s="9" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="19.5">
       <c r="A88" s="10"/>

--- a/2024FEB_M1_Daily_Class.xlsx
+++ b/2024FEB_M1_Daily_Class.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="64">
   <si>
     <t>S.N.</t>
   </si>
@@ -200,6 +200,12 @@
   </si>
   <si>
     <t>Handling events and adapter classes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Self Leave </t>
+  </si>
+  <si>
+    <t>JDBC</t>
   </si>
 </sst>
 </file>
@@ -279,7 +285,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -312,7 +318,10 @@
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -622,15 +631,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C95"/>
+  <dimension ref="A1:C146"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="11" width="4.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="12" width="28.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="13" width="58.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="12" width="4.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="13" width="28.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="14" width="57.14785714285715" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -1571,35 +1580,45 @@
       <c r="B88" s="8">
         <v>45420</v>
       </c>
-      <c r="C88" s="9"/>
+      <c r="C88" s="9" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="19.5">
       <c r="A89" s="10"/>
       <c r="B89" s="8">
         <v>45421</v>
       </c>
-      <c r="C89" s="9"/>
+      <c r="C89" s="9" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="19.5">
       <c r="A90" s="10"/>
       <c r="B90" s="8">
         <v>45422</v>
       </c>
-      <c r="C90" s="9"/>
+      <c r="C90" s="9" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="19.5">
       <c r="A91" s="10"/>
       <c r="B91" s="8">
         <v>45423</v>
       </c>
-      <c r="C91" s="9"/>
+      <c r="C91" s="9" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="19.5">
       <c r="A92" s="10"/>
       <c r="B92" s="8">
         <v>45424</v>
       </c>
-      <c r="C92" s="9"/>
+      <c r="C92" s="9" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="19.5">
       <c r="A93" s="10"/>
@@ -1622,6 +1641,363 @@
       </c>
       <c r="C95" s="9"/>
     </row>
+    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
+      <c r="A96" s="11"/>
+      <c r="B96" s="8">
+        <v>45428</v>
+      </c>
+      <c r="C96" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
+      <c r="A97" s="11"/>
+      <c r="B97" s="8">
+        <v>45429</v>
+      </c>
+      <c r="C97" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
+      <c r="A98" s="11"/>
+      <c r="B98" s="8">
+        <v>45430</v>
+      </c>
+      <c r="C98" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
+      <c r="A99" s="11"/>
+      <c r="B99" s="8">
+        <v>45431</v>
+      </c>
+      <c r="C99" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
+      <c r="A100" s="11"/>
+      <c r="B100" s="8">
+        <v>45432</v>
+      </c>
+      <c r="C100" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
+      <c r="A101" s="11"/>
+      <c r="B101" s="8">
+        <v>45433</v>
+      </c>
+      <c r="C101" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
+      <c r="A102" s="11"/>
+      <c r="B102" s="8">
+        <v>45434</v>
+      </c>
+      <c r="C102" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75">
+      <c r="A103" s="11"/>
+      <c r="B103" s="8">
+        <v>45435</v>
+      </c>
+      <c r="C103" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75">
+      <c r="A104" s="11"/>
+      <c r="B104" s="8">
+        <v>45436</v>
+      </c>
+      <c r="C104" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
+      <c r="A105" s="11"/>
+      <c r="B105" s="8">
+        <v>45437</v>
+      </c>
+      <c r="C105" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
+      <c r="A106" s="11"/>
+      <c r="B106" s="8">
+        <v>45438</v>
+      </c>
+      <c r="C106" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
+      <c r="A107" s="11"/>
+      <c r="B107" s="8">
+        <v>45439</v>
+      </c>
+      <c r="C107" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
+      <c r="A108" s="11"/>
+      <c r="B108" s="8">
+        <v>45440</v>
+      </c>
+      <c r="C108" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75">
+      <c r="A109" s="11"/>
+      <c r="B109" s="8">
+        <v>45441</v>
+      </c>
+      <c r="C109" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75">
+      <c r="A110" s="11"/>
+      <c r="B110" s="8">
+        <v>45442</v>
+      </c>
+      <c r="C110" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75">
+      <c r="A111" s="11"/>
+      <c r="B111" s="8">
+        <v>45443</v>
+      </c>
+      <c r="C111" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75">
+      <c r="A112" s="11"/>
+      <c r="B112" s="8">
+        <v>45444</v>
+      </c>
+      <c r="C112" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75">
+      <c r="A113" s="11"/>
+      <c r="B113" s="8">
+        <v>45445</v>
+      </c>
+      <c r="C113" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75">
+      <c r="A114" s="11"/>
+      <c r="B114" s="8">
+        <v>45446</v>
+      </c>
+      <c r="C114" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75">
+      <c r="A115" s="11"/>
+      <c r="B115" s="8">
+        <v>45447</v>
+      </c>
+      <c r="C115" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75">
+      <c r="A116" s="11"/>
+      <c r="B116" s="8">
+        <v>45448</v>
+      </c>
+      <c r="C116" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75">
+      <c r="A117" s="11"/>
+      <c r="B117" s="8">
+        <v>45449</v>
+      </c>
+      <c r="C117" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75">
+      <c r="A118" s="11"/>
+      <c r="B118" s="8">
+        <v>45450</v>
+      </c>
+      <c r="C118" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75">
+      <c r="A119" s="11"/>
+      <c r="B119" s="8">
+        <v>45451</v>
+      </c>
+      <c r="C119" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75">
+      <c r="A120" s="11"/>
+      <c r="B120" s="8">
+        <v>45452</v>
+      </c>
+      <c r="C120" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75">
+      <c r="A121" s="11"/>
+      <c r="B121" s="8">
+        <v>45453</v>
+      </c>
+      <c r="C121" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75">
+      <c r="A122" s="11"/>
+      <c r="B122" s="8">
+        <v>45454</v>
+      </c>
+      <c r="C122" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75">
+      <c r="A123" s="11"/>
+      <c r="B123" s="8">
+        <v>45455</v>
+      </c>
+      <c r="C123" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75">
+      <c r="A124" s="11"/>
+      <c r="B124" s="8">
+        <v>45456</v>
+      </c>
+      <c r="C124" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75">
+      <c r="A125" s="11"/>
+      <c r="B125" s="8">
+        <v>45457</v>
+      </c>
+      <c r="C125" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75">
+      <c r="A126" s="11"/>
+      <c r="B126" s="8">
+        <v>45458</v>
+      </c>
+      <c r="C126" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75">
+      <c r="A127" s="11"/>
+      <c r="B127" s="8">
+        <v>45459</v>
+      </c>
+      <c r="C127" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75">
+      <c r="A128" s="11"/>
+      <c r="B128" s="8">
+        <v>45460</v>
+      </c>
+      <c r="C128" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75">
+      <c r="A129" s="11"/>
+      <c r="B129" s="8">
+        <v>45461</v>
+      </c>
+      <c r="C129" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75">
+      <c r="A130" s="11"/>
+      <c r="B130" s="8">
+        <v>45462</v>
+      </c>
+      <c r="C130" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18.75">
+      <c r="A131" s="11"/>
+      <c r="B131" s="8">
+        <v>45463</v>
+      </c>
+      <c r="C131" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18.75">
+      <c r="A132" s="11"/>
+      <c r="B132" s="8">
+        <v>45464</v>
+      </c>
+      <c r="C132" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18.75">
+      <c r="A133" s="11"/>
+      <c r="B133" s="8">
+        <v>45465</v>
+      </c>
+      <c r="C133" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18.75">
+      <c r="A134" s="11"/>
+      <c r="B134" s="8">
+        <v>45466</v>
+      </c>
+      <c r="C134" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18.75">
+      <c r="A135" s="11"/>
+      <c r="B135" s="8">
+        <v>45467</v>
+      </c>
+      <c r="C135" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18.75">
+      <c r="A136" s="11"/>
+      <c r="B136" s="8">
+        <v>45468</v>
+      </c>
+      <c r="C136" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18.75">
+      <c r="A137" s="11"/>
+      <c r="B137" s="8">
+        <v>45469</v>
+      </c>
+      <c r="C137" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18.75">
+      <c r="A138" s="11"/>
+      <c r="B138" s="8">
+        <v>45470</v>
+      </c>
+      <c r="C138" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18.75">
+      <c r="A139" s="11"/>
+      <c r="B139" s="8">
+        <v>45471</v>
+      </c>
+      <c r="C139" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18.75">
+      <c r="A140" s="11"/>
+      <c r="B140" s="8">
+        <v>45472</v>
+      </c>
+      <c r="C140" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18.75">
+      <c r="A141" s="11"/>
+      <c r="B141" s="8">
+        <v>45473</v>
+      </c>
+      <c r="C141" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18.75">
+      <c r="A142" s="11"/>
+      <c r="B142" s="8">
+        <v>45474</v>
+      </c>
+      <c r="C142" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18.75">
+      <c r="A143" s="11"/>
+      <c r="B143" s="8">
+        <v>45475</v>
+      </c>
+      <c r="C143" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18.75">
+      <c r="A144" s="11"/>
+      <c r="B144" s="8">
+        <v>45476</v>
+      </c>
+      <c r="C144" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18.75">
+      <c r="A145" s="11"/>
+      <c r="B145" s="8">
+        <v>45477</v>
+      </c>
+      <c r="C145" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18.75">
+      <c r="A146" s="11"/>
+      <c r="B146" s="8">
+        <v>45478</v>
+      </c>
+      <c r="C146" s="9"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
